--- a/output/Summary Statistics with vs without Propensity Weights.xlsx
+++ b/output/Summary Statistics with vs without Propensity Weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nj995/dropbox/projects/2018_helios/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B1D9C-E06D-4044-A1AC-3A0778B09DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C139DA6-0961-0543-A6BB-1B75797C8D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{FCB13D2B-2972-6444-9849-A18092FF4B52}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{FCB13D2B-2972-6444-9849-A18092FF4B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Independent Variables" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dependent Variables'!$B$3:$I$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="40">
   <si>
     <t>Cancer Research UK</t>
   </si>
@@ -122,18 +122,6 @@
     <t>Sum of Number of Pulication</t>
   </si>
   <si>
-    <t>1. Pre-Grant</t>
-  </si>
-  <si>
-    <t>2. Post-Grant</t>
-  </si>
-  <si>
-    <t>With Propensity Weights</t>
-  </si>
-  <si>
-    <t>Without Propensity Weights</t>
-  </si>
-  <si>
     <t>NHMRC</t>
   </si>
   <si>
@@ -141,6 +129,30 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Before Grant</t>
+  </si>
+  <si>
+    <t>After Grant</t>
+  </si>
+  <si>
+    <t>Change After Grant</t>
+  </si>
+  <si>
+    <t>INCa</t>
+  </si>
+  <si>
+    <t>CRUK</t>
+  </si>
+  <si>
+    <t>Wellcome</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
   </si>
 </sst>
 </file>
@@ -464,26 +476,33 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,77 +533,181 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The Number of Publications by Researcher Increases after the Grant</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -594,9 +717,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.4091185151247163E-2"/>
-          <c:y val="0.19515147470972907"/>
+          <c:y val="3.5512996869367236E-2"/>
           <c:w val="0.92102383514645247"/>
-          <c:h val="0.53554428577783708"/>
+          <c:h val="0.83532680810731996"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -608,117 +731,127 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$25:$B$26</c:f>
+              <c:f>Sheet1!$B$38:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Pre-Grant</c:v>
+                  <c:v>Before Grant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$27:$A$42</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Cancer Research UK</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>INCa/INSERM/DGOS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Wellcome Trust</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>NCI</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>NHMRC</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CRUK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INCa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NCI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NHMRC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wellcome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$42</c:f>
+              <c:f>Sheet1!$B$40:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.812341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2440509999999998</c:v>
+                  <c:v>5.6829770000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6829770000000002</c:v>
+                  <c:v>2.9583930000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6829770000000002</c:v>
+                  <c:v>3.7147160000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.2990029999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8504360000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9583930000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6922930000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7147160000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7045139999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,137 +867,147 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25:$C$26</c:f>
+              <c:f>Sheet1!$C$38:$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Post-Grant</c:v>
+                  <c:v>Change After Grant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$27:$A$42</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Cancer Research UK</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>INCa/INSERM/DGOS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Wellcome Trust</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>NCI</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>NHMRC</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CRUK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INCa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NCI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NHMRC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wellcome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$42</c:f>
+              <c:f>Sheet1!$C$40:$C$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.8046949999999997</c:v>
+                  <c:v>1.9923539999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4566530000000002</c:v>
+                  <c:v>2.5151879999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1981649999999995</c:v>
+                  <c:v>1.2582969999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1981649999999995</c:v>
+                  <c:v>2.091412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8132890000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8867580000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2166899999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.578703</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.8061280000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2182769999999996</c:v>
+                  <c:v>1.5142860000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F3F3-D84A-9946-BC87EAED6C6D}"/>
+              <c16:uniqueId val="{00000010-EDBA-184D-97FD-7468B1621D4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="65"/>
         <c:axId val="254969519"/>
         <c:axId val="254956575"/>
       </c:barChart>
@@ -881,11 +1024,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -897,11 +1040,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -924,17 +1067,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -947,11 +1102,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -961,7 +1116,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Number of Publications per year</a:t>
+                  <a:t>Average Number of Publications per Researcher per Year</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -979,11 +1134,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -995,37 +1150,10 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="254969519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1040,9 +1168,24 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40794652230971135"/>
+          <c:y val="0.93579870224555262"/>
+          <c:w val="0.28106627296587927"/>
+          <c:h val="4.6402012248468939E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1055,9 +1198,9 @@
           <a:pPr>
             <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1081,14 +1224,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1148,89 +1307,299 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The Propensity Scores Normalize Publication Levels Prior to Grant</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1240,13 +1609,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.9754618301578281E-2"/>
-          <c:y val="0.18875306570285272"/>
+          <c:y val="2.4289561461067366E-2"/>
           <c:w val="0.91404508714761168"/>
-          <c:h val="0.64175637881330405"/>
+          <c:h val="0.83052534448818915"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1254,50 +1623,109 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$56:$B$57</c:f>
+              <c:f>Sheet1!$B$69:$B$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cancer Research UK</c:v>
+                  <c:v>Wellcome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:f>Sheet1!$A$71:$A$76</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
+                    <c:v>Change After Grant</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>With Propensity Weights</c:v>
+                    <c:v>Before Grant</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1305,21 +1733,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$B$64</c:f>
+              <c:f>Sheet1!$B$71:$B$76</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.812341</c:v>
+                  <c:v>1.0363220000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8046949999999997</c:v>
+                  <c:v>1.5142860000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2440509999999998</c:v>
+                  <c:v>3.8504360000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4566530000000002</c:v>
+                  <c:v>3.2990029999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,50 +1763,109 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$56:$C$57</c:f>
+              <c:f>Sheet1!$C$69:$C$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INCa/INSERM/DGOS</c:v>
+                  <c:v>NHMRC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:f>Sheet1!$A$71:$A$76</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
+                    <c:v>Change After Grant</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>With Propensity Weights</c:v>
+                    <c:v>Before Grant</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1386,28 +1873,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$64</c:f>
+              <c:f>Sheet1!$C$71:$C$76</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.6829770000000002</c:v>
+                  <c:v>2.513763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1981649999999995</c:v>
+                  <c:v>2.091412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6829770000000002</c:v>
+                  <c:v>4.7045139999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1981649999999995</c:v>
+                  <c:v>3.7147160000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C125-3249-A56E-D6A8D5B8C4A1}"/>
+              <c16:uniqueId val="{00000005-506D-7A4B-83B7-F3B256945BD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1416,88 +1903,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$56:$D$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wellcome Trust</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$58:$A$64</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1. Pre-Grant</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2. Post-Grant</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1. Pre-Grant</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2. Post-Grant</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>With Propensity Weights</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$58:$D$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2990029999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8132890000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8504360000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8867580000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C125-3249-A56E-D6A8D5B8C4A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$56:$E$57</c:f>
+              <c:f>Sheet1!$D$69:$D$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1508,39 +1914,98 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:f>Sheet1!$A$71:$A$76</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
+                    <c:v>Change After Grant</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>With Propensity Weights</c:v>
+                    <c:v>Before Grant</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1548,28 +2013,169 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$E$64</c:f>
+              <c:f>Sheet1!$D$71:$D$76</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.9583930000000001</c:v>
+                  <c:v>1.8864099999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2166899999999998</c:v>
+                  <c:v>1.2582969999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.6922930000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.578703</c:v>
+                  <c:v>2.9583930000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C125-3249-A56E-D6A8D5B8C4A1}"/>
+              <c16:uniqueId val="{00000006-506D-7A4B-83B7-F3B256945BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$69:$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INCa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$71:$A$76</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adjusted</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Unadjusted</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Adjusted</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unadjusted</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Change After Grant</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Before Grant</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5151879999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5151879999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6829770000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6829770000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-506D-7A4B-83B7-F3B256945BD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1578,50 +2184,110 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$56:$F$57</c:f>
+              <c:f>Sheet1!$F$69:$F$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NHMRC</c:v>
+                  <c:v>CRUK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$58:$A$64</c:f>
+              <c:f>Sheet1!$A$71:$A$76</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1. Pre-Grant</c:v>
+                    <c:v>Adjusted</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2. Post-Grant</c:v>
+                    <c:v>Unadjusted</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Without Propensity Weights</c:v>
+                    <c:v>Change After Grant</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>With Propensity Weights</c:v>
+                    <c:v>Before Grant</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1629,41 +2295,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$58:$F$64</c:f>
+              <c:f>Sheet1!$F$71:$F$76</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7147160000000001</c:v>
+                  <c:v>2.2126020000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8061280000000002</c:v>
+                  <c:v>1.9923539999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7045139999999996</c:v>
+                  <c:v>5.2440509999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2182769999999996</c:v>
+                  <c:v>4.812341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C125-3249-A56E-D6A8D5B8C4A1}"/>
+              <c16:uniqueId val="{00000008-506D-7A4B-83B7-F3B256945BD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="65"/>
         <c:axId val="256129775"/>
         <c:axId val="256131455"/>
       </c:barChart>
@@ -1673,18 +2339,18 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1696,11 +2362,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1724,16 +2390,28 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1742,15 +2420,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1759,9 +2437,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Number of Publications per year</a:t>
+                  <a:rPr lang="en-US" b="1">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average Number of Publications per Researcher per Year</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1774,15 +2457,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1794,7 +2477,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1812,9 +2495,9 @@
             <a:pPr>
               <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1839,9 +2522,24 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38981583552055993"/>
+          <c:y val="0.94585411198600178"/>
+          <c:w val="0.33668438320209976"/>
+          <c:h val="3.4801509186351706E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1854,9 +2552,9 @@
           <a:pPr>
             <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1880,14 +2578,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1909,7 +2623,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -1930,13 +2643,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1970,13 +2680,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2010,171 +2717,207 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2190,21 +2933,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2219,13 +2960,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2238,17 +2979,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2257,12 +2998,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2276,30 +3017,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2309,17 +3056,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2328,17 +3086,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2347,17 +3105,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2366,27 +3123,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2394,11 +3159,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2406,14 +3182,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2425,12 +3201,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2439,14 +3215,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2455,9 +3230,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2475,9 +3250,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2488,11 +3263,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2500,184 +3280,214 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2693,21 +3503,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2722,13 +3530,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2741,17 +3549,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2760,12 +3568,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2779,30 +3587,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2812,17 +3626,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2831,17 +3656,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2850,17 +3675,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2869,27 +3693,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2897,11 +3729,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2909,14 +3752,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2928,12 +3771,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2942,14 +3785,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2958,9 +3800,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2978,9 +3820,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2991,11 +3833,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3003,14 +3850,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3020,15 +3861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>376002</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>648957</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>141406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,7 +3880,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3055,16 +3898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>35607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>559142</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>53046</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3170,198 +4013,47 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.01353</cdr:x>
-      <cdr:y>0.95198</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.24357</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439CA85A-983A-C245-AA92-00034C872351}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="127000" y="4292600"/>
-          <a:ext cx="2159000" cy="215900"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Source: INCa and Dimensions</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.95355</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.25037</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984F34B7-EAE7-854A-A86E-4210C2E1615C}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4432300"/>
-          <a:ext cx="2159000" cy="215900"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Source: INCa and Dimensions</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nicolas Guetta Jeanrenaud" refreshedDate="43424.515851504628" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{2278C1FB-75DB-8C4E-939F-C75A406C79E1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nicolas Guetta Jeanrenaud" refreshedDate="43536.463265393519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{60C64AE0-5F12-8B4F-ABBF-A3429C9B8626}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E21" sheet="Sheet1"/>
+    <worksheetSource ref="A1:E31" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="5">
+    <cacheField name="Agency" numFmtId="0">
+      <sharedItems count="8">
+        <s v="NCI"/>
+        <s v="INCa"/>
+        <s v="CRUK"/>
+        <s v="NHMRC"/>
+        <s v="Wellcome"/>
+        <s v="Cancer Research UK" u="1"/>
+        <s v="INCa/INSERM/DGOS" u="1"/>
+        <s v="Wellcome Trust" u="1"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Propensity Weight" numFmtId="0">
       <sharedItems count="4">
-        <s v="Without Propensity Weights"/>
-        <s v="With Propensity Weights"/>
-        <b v="0" u="1"/>
-        <b v="1" u="1"/>
+        <s v="Unadjusted"/>
+        <s v="Adjusted"/>
+        <s v="With Propensity Weights" u="1"/>
+        <s v="Without Propensity Weights" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems count="4">
-        <s v="1. Pre-Grant"/>
-        <s v="2. Post-Grant"/>
-        <s v="Pre-Grant" u="1"/>
-        <s v="Post-Grant" u="1"/>
+      <sharedItems count="3">
+        <s v="Before Grant"/>
+        <s v="After Grant"/>
+        <s v="Change After Grant"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Variable" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Agency" numFmtId="0">
-      <sharedItems count="7">
-        <s v="NCI"/>
-        <s v="INCa/INSERM/DGOS"/>
-        <s v="Cancer Research UK"/>
-        <s v="NHMRC"/>
-        <s v="Wellcome Trust"/>
-        <s v="National Health and Medical Research Council" u="1"/>
-        <s v="National Cancer Institute" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number of Pulication" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9583930000000001" maxValue="8.1981649999999995"/>
+    <cacheField name="Number of Pulication" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0363220000000002" maxValue="8.1981649999999995"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3373,194 +4065,264 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
   <r>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="0"/>
     <n v="2.9583930000000001"/>
   </r>
   <r>
     <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <s v="nb_pubs"/>
+    <n v="4.2166899999999998"/>
+  </r>
+  <r>
     <x v="0"/>
-    <n v="4.2166899999999998"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="1.2582969999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="nb_pubs"/>
+    <n v="4.6922930000000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="nb_pubs"/>
+    <n v="6.578703"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="1.8864099999999997"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="0"/>
-    <n v="4.6922930000000003"/>
+    <n v="5.6829770000000002"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <s v="nb_pubs"/>
-    <x v="0"/>
-    <n v="6.578703"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="nb_pubs"/>
-    <x v="1"/>
-    <n v="5.6829770000000002"/>
-  </r>
-  <r>
     <x v="0"/>
     <x v="1"/>
     <s v="nb_pubs"/>
-    <x v="1"/>
     <n v="8.1981649999999995"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
+    <x v="2"/>
     <s v="nb_pubs"/>
+    <n v="2.5151879999999993"/>
+  </r>
+  <r>
     <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="nb_pubs"/>
     <n v="5.6829770000000002"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="nb_pubs"/>
-    <x v="1"/>
-    <n v="8.1981649999999995"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="nb_pubs"/>
-    <x v="2"/>
-    <n v="4.812341"/>
-  </r>
-  <r>
-    <x v="0"/>
     <x v="1"/>
     <s v="nb_pubs"/>
-    <x v="2"/>
-    <n v="6.8046949999999997"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="nb_pubs"/>
-    <x v="2"/>
-    <n v="5.2440509999999998"/>
+    <n v="8.1981649999999995"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
+    <x v="2"/>
     <s v="nb_pubs"/>
+    <n v="2.5151879999999993"/>
+  </r>
+  <r>
     <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="nb_pubs"/>
+    <n v="4.812341"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="nb_pubs"/>
+    <n v="6.8046949999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="1.9923539999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="nb_pubs"/>
+    <n v="5.2440509999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="nb_pubs"/>
     <n v="7.4566530000000002"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="2.2126020000000004"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="3"/>
     <n v="3.7147160000000001"/>
   </r>
   <r>
+    <x v="3"/>
     <x v="0"/>
     <x v="1"/>
     <s v="nb_pubs"/>
-    <x v="3"/>
     <n v="5.8061280000000002"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="2.091412"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="3"/>
     <n v="4.7045139999999996"/>
   </r>
   <r>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <s v="nb_pubs"/>
-    <x v="3"/>
     <n v="7.2182769999999996"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="2.513763"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="4"/>
     <n v="3.2990029999999999"/>
   </r>
   <r>
+    <x v="4"/>
     <x v="0"/>
     <x v="1"/>
     <s v="nb_pubs"/>
-    <x v="4"/>
     <n v="4.8132890000000002"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="1.5142860000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="1"/>
     <x v="0"/>
     <s v="nb_pubs"/>
-    <x v="4"/>
     <n v="3.8504360000000002"/>
   </r>
   <r>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <s v="nb_pubs"/>
+    <n v="4.8867580000000004"/>
+  </r>
+  <r>
     <x v="4"/>
-    <n v="4.8867580000000004"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="nb_pubs"/>
+    <n v="1.0363220000000002"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA43F4C2-99BE-944F-93FC-02A8CF68C06B}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="A56:G64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCD09A36-0C02-164B-A584-169815E06C1A}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="A69:F76" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" sortType="descending">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="9">
+        <item m="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
         <item x="0"/>
+        <item m="1" x="6"/>
         <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="5">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
+        <item m="1" x="2"/>
         <item m="1" x="3"/>
-        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
+    <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i r="1">
       <x/>
@@ -3569,7 +4331,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x/>
@@ -3577,22 +4339,19 @@
     <i r="1">
       <x v="1"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colFields count="1">
-    <field x="3"/>
+    <field x="0"/>
   </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
+  <colItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
@@ -3600,14 +4359,16 @@
     <i>
       <x v="6"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Number of Pulication" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Number of Pulication" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="11">
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3617,121 +4378,61 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="1" series="1">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="2" series="1">
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="3" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="4" series="1">
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="26" format="5" series="1">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -3751,119 +4452,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AB43A31-FD3F-994F-808A-9D4E27954ADC}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="A25:D42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40DD3F3A-91FD-0C40-859B-89CECD17A5F8}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+  <location ref="A38:D45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="9">
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
+      <items count="4">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
+  <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
+    <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
     <i>
       <x v="5"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
     <i>
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </colFields>
   <colItems count="3">
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Number of Pulication" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Number of Pulication" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="1">
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -4204,16 +4906,16 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -4305,16 +5007,16 @@
     </row>
     <row r="8" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
@@ -4411,12 +5113,12 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4523,12 +5225,12 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -4650,7 +5352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF51150-0581-6247-BB8E-713AC2A7445E}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:I11"/>
     </sheetView>
   </sheetViews>
@@ -5282,34 +5984,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5A1764-3919-724D-968D-8BFA254153DE}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="67" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
@@ -5317,780 +6031,793 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="46">
         <v>2.9583930000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="46">
         <v>4.2166899999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>4.6922930000000003</v>
+      <c r="E4" s="46">
+        <f>E3-E2</f>
+        <v>1.2582969999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>6.578703</v>
+      <c r="E5" s="46">
+        <v>4.6922930000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>5.6829770000000002</v>
+      <c r="E6" s="46">
+        <v>6.578703</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>8.1981649999999995</v>
+      <c r="E7" s="46">
+        <f>E6-E5</f>
+        <v>1.8864099999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="46">
         <v>5.6829770000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="46">
         <v>8.1981649999999995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4.812341</v>
+      <c r="E10" s="46">
+        <f>E9-E8</f>
+        <v>2.5151879999999993</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>6.8046949999999997</v>
+      <c r="E11" s="46">
+        <v>5.6829770000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5.2440509999999998</v>
+      <c r="E12" s="46">
+        <v>8.1981649999999995</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>7.4566530000000002</v>
+      <c r="E13" s="46">
+        <f>E12-E11</f>
+        <v>2.5151879999999993</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>3.7147160000000001</v>
+      <c r="E14" s="46">
+        <v>4.812341</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>5.8061280000000002</v>
+      <c r="E15" s="46">
+        <v>6.8046949999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>4.7045139999999996</v>
+      <c r="E16" s="46">
+        <f>E15-E14</f>
+        <v>1.9923539999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>7.2182769999999996</v>
+      <c r="E17" s="46">
+        <v>5.2440509999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>3.2990029999999999</v>
+      <c r="E18" s="46">
+        <v>7.4566530000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>4.8132890000000002</v>
+      <c r="E19" s="46">
+        <f>E18-E17</f>
+        <v>2.2126020000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3.8504360000000002</v>
+      <c r="E20" s="46">
+        <v>3.7147160000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="46">
+        <v>5.8061280000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="46">
+        <f>E21-E20</f>
+        <v>2.091412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="46">
+        <v>4.7045139999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="46">
+        <v>7.2182769999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="46">
+        <f>E24-E23</f>
+        <v>2.513763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="46">
+        <v>3.2990029999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="46">
+        <v>4.8132890000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="46">
+        <f>E27-E26</f>
+        <v>1.5142860000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="46">
+        <v>3.8504360000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="46">
+        <v>4.8867580000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="46">
+        <f>E30-E29</f>
+        <v>1.0363220000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="46"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="46">
+        <v>4.812341</v>
+      </c>
+      <c r="C40" s="46">
+        <v>1.9923539999999997</v>
+      </c>
+      <c r="D40" s="46">
+        <v>6.8046949999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="46">
+        <v>5.6829770000000002</v>
+      </c>
+      <c r="C41" s="46">
+        <v>2.5151879999999993</v>
+      </c>
+      <c r="D41" s="46">
+        <v>8.1981649999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4.8867580000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="B42" s="46">
+        <v>2.9583930000000001</v>
+      </c>
+      <c r="C42" s="46">
+        <v>1.2582969999999998</v>
+      </c>
+      <c r="D42" s="46">
+        <v>4.2166899999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="46">
+        <v>3.7147160000000001</v>
+      </c>
+      <c r="C43" s="46">
+        <v>2.091412</v>
+      </c>
+      <c r="D43" s="46">
+        <v>5.8061280000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="46">
+        <v>3.2990029999999999</v>
+      </c>
+      <c r="C44" s="46">
+        <v>1.5142860000000002</v>
+      </c>
+      <c r="D44" s="46">
+        <v>4.8132890000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="46">
+        <v>20.46743</v>
+      </c>
+      <c r="C45" s="46">
+        <v>9.371537</v>
+      </c>
+      <c r="D45" s="46">
+        <v>29.838967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B69" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="47">
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="46">
+        <v>2.5506080000000004</v>
+      </c>
+      <c r="C71" s="46">
+        <v>4.605175</v>
+      </c>
+      <c r="D71" s="46">
+        <v>3.1447069999999995</v>
+      </c>
+      <c r="E71" s="46">
+        <v>5.0303759999999986</v>
+      </c>
+      <c r="F71" s="46">
+        <v>4.2049560000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="46">
+        <v>1.0363220000000002</v>
+      </c>
+      <c r="C72" s="46">
+        <v>2.513763</v>
+      </c>
+      <c r="D72" s="46">
+        <v>1.8864099999999997</v>
+      </c>
+      <c r="E72" s="46">
+        <v>2.5151879999999993</v>
+      </c>
+      <c r="F72" s="46">
+        <v>2.2126020000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="46">
+        <v>1.5142860000000002</v>
+      </c>
+      <c r="C73" s="46">
+        <v>2.091412</v>
+      </c>
+      <c r="D73" s="46">
+        <v>1.2582969999999998</v>
+      </c>
+      <c r="E73" s="46">
+        <v>2.5151879999999993</v>
+      </c>
+      <c r="F73" s="46">
+        <v>1.9923539999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="46">
+        <v>7.1494390000000001</v>
+      </c>
+      <c r="C74" s="46">
+        <v>8.4192299999999989</v>
+      </c>
+      <c r="D74" s="46">
+        <v>7.6506860000000003</v>
+      </c>
+      <c r="E74" s="46">
+        <v>11.365954</v>
+      </c>
+      <c r="F74" s="46">
         <v>10.056391999999999</v>
       </c>
-      <c r="C27" s="47">
-        <v>14.261348</v>
-      </c>
-      <c r="D27" s="47">
-        <v>24.317740000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="47">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="46">
+        <v>3.8504360000000002</v>
+      </c>
+      <c r="C75" s="46">
+        <v>4.7045139999999996</v>
+      </c>
+      <c r="D75" s="46">
+        <v>4.6922930000000003</v>
+      </c>
+      <c r="E75" s="46">
+        <v>5.6829770000000002</v>
+      </c>
+      <c r="F75" s="46">
+        <v>5.2440509999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="46">
+        <v>3.2990029999999999</v>
+      </c>
+      <c r="C76" s="46">
+        <v>3.7147160000000001</v>
+      </c>
+      <c r="D76" s="46">
+        <v>2.9583930000000001</v>
+      </c>
+      <c r="E76" s="46">
+        <v>5.6829770000000002</v>
+      </c>
+      <c r="F76" s="46">
         <v>4.812341</v>
-      </c>
-      <c r="C28" s="47">
-        <v>6.8046949999999997</v>
-      </c>
-      <c r="D28" s="47">
-        <v>11.617035999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="47">
-        <v>5.2440509999999998</v>
-      </c>
-      <c r="C29" s="47">
-        <v>7.4566530000000002</v>
-      </c>
-      <c r="D29" s="47">
-        <v>12.700704</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="47">
-        <v>11.365954</v>
-      </c>
-      <c r="C30" s="47">
-        <v>16.396329999999999</v>
-      </c>
-      <c r="D30" s="47">
-        <v>27.762284000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="47">
-        <v>5.6829770000000002</v>
-      </c>
-      <c r="C31" s="47">
-        <v>8.1981649999999995</v>
-      </c>
-      <c r="D31" s="47">
-        <v>13.881142000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="47">
-        <v>5.6829770000000002</v>
-      </c>
-      <c r="C32" s="47">
-        <v>8.1981649999999995</v>
-      </c>
-      <c r="D32" s="47">
-        <v>13.881142000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="47">
-        <v>7.1494390000000001</v>
-      </c>
-      <c r="C33" s="47">
-        <v>9.7000470000000014</v>
-      </c>
-      <c r="D33" s="47">
-        <v>16.849485999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="47">
-        <v>3.2990029999999999</v>
-      </c>
-      <c r="C34" s="47">
-        <v>4.8132890000000002</v>
-      </c>
-      <c r="D34" s="47">
-        <v>8.1122920000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="47">
-        <v>3.8504360000000002</v>
-      </c>
-      <c r="C35" s="47">
-        <v>4.8867580000000004</v>
-      </c>
-      <c r="D35" s="47">
-        <v>8.7371940000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="47">
-        <v>7.6506860000000003</v>
-      </c>
-      <c r="C36" s="47">
-        <v>10.795393000000001</v>
-      </c>
-      <c r="D36" s="47">
-        <v>18.446079000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="47">
-        <v>2.9583930000000001</v>
-      </c>
-      <c r="C37" s="47">
-        <v>4.2166899999999998</v>
-      </c>
-      <c r="D37" s="47">
-        <v>7.1750829999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="47">
-        <v>4.6922930000000003</v>
-      </c>
-      <c r="C38" s="47">
-        <v>6.578703</v>
-      </c>
-      <c r="D38" s="47">
-        <v>11.270996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="47">
-        <v>8.4192299999999989</v>
-      </c>
-      <c r="C39" s="47">
-        <v>13.024405</v>
-      </c>
-      <c r="D39" s="47">
-        <v>21.443635</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="47">
-        <v>3.7147160000000001</v>
-      </c>
-      <c r="C40" s="47">
-        <v>5.8061280000000002</v>
-      </c>
-      <c r="D40" s="47">
-        <v>9.5208440000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="47">
-        <v>4.7045139999999996</v>
-      </c>
-      <c r="C41" s="47">
-        <v>7.2182769999999996</v>
-      </c>
-      <c r="D41" s="47">
-        <v>11.922791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="47">
-        <v>44.641700999999998</v>
-      </c>
-      <c r="C42" s="47">
-        <v>64.177522999999994</v>
-      </c>
-      <c r="D42" s="47">
-        <v>108.81922399999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="47">
-        <v>11.617035999999999</v>
-      </c>
-      <c r="C58" s="47">
-        <v>13.881142000000001</v>
-      </c>
-      <c r="D58" s="47">
-        <v>8.1122920000000001</v>
-      </c>
-      <c r="E58" s="47">
-        <v>7.1750829999999999</v>
-      </c>
-      <c r="F58" s="47">
-        <v>9.5208440000000003</v>
-      </c>
-      <c r="G58" s="47">
-        <v>50.306397000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="47">
-        <v>4.812341</v>
-      </c>
-      <c r="C59" s="47">
-        <v>5.6829770000000002</v>
-      </c>
-      <c r="D59" s="47">
-        <v>3.2990029999999999</v>
-      </c>
-      <c r="E59" s="47">
-        <v>2.9583930000000001</v>
-      </c>
-      <c r="F59" s="47">
-        <v>3.7147160000000001</v>
-      </c>
-      <c r="G59" s="47">
-        <v>20.46743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="47">
-        <v>6.8046949999999997</v>
-      </c>
-      <c r="C60" s="47">
-        <v>8.1981649999999995</v>
-      </c>
-      <c r="D60" s="47">
-        <v>4.8132890000000002</v>
-      </c>
-      <c r="E60" s="47">
-        <v>4.2166899999999998</v>
-      </c>
-      <c r="F60" s="47">
-        <v>5.8061280000000002</v>
-      </c>
-      <c r="G60" s="47">
-        <v>29.838967</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="47">
-        <v>12.700704</v>
-      </c>
-      <c r="C61" s="47">
-        <v>13.881142000000001</v>
-      </c>
-      <c r="D61" s="47">
-        <v>8.7371940000000006</v>
-      </c>
-      <c r="E61" s="47">
-        <v>11.270996</v>
-      </c>
-      <c r="F61" s="47">
-        <v>11.922791</v>
-      </c>
-      <c r="G61" s="47">
-        <v>58.512827000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="47">
-        <v>5.2440509999999998</v>
-      </c>
-      <c r="C62" s="47">
-        <v>5.6829770000000002</v>
-      </c>
-      <c r="D62" s="47">
-        <v>3.8504360000000002</v>
-      </c>
-      <c r="E62" s="47">
-        <v>4.6922930000000003</v>
-      </c>
-      <c r="F62" s="47">
-        <v>4.7045139999999996</v>
-      </c>
-      <c r="G62" s="47">
-        <v>24.174271000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="47">
-        <v>7.4566530000000002</v>
-      </c>
-      <c r="C63" s="47">
-        <v>8.1981649999999995</v>
-      </c>
-      <c r="D63" s="47">
-        <v>4.8867580000000004</v>
-      </c>
-      <c r="E63" s="47">
-        <v>6.578703</v>
-      </c>
-      <c r="F63" s="47">
-        <v>7.2182769999999996</v>
-      </c>
-      <c r="G63" s="47">
-        <v>34.338555999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="47">
-        <v>24.317739999999997</v>
-      </c>
-      <c r="C64" s="47">
-        <v>27.762284000000001</v>
-      </c>
-      <c r="D64" s="47">
-        <v>16.849485999999999</v>
-      </c>
-      <c r="E64" s="47">
-        <v>18.446079000000001</v>
-      </c>
-      <c r="F64" s="47">
-        <v>21.443635</v>
-      </c>
-      <c r="G64" s="47">
-        <v>108.81922400000001</v>
       </c>
     </row>
   </sheetData>
